--- a/tests/polybench-c-4.0/results/scop-count-ffast-math.xlsx
+++ b/tests/polybench-c-4.0/results/scop-count-ffast-math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="742"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="742" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#-of-scops" sheetId="10" r:id="rId1"/>
@@ -329,8 +329,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="601">
+  <cellStyleXfs count="661">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -983,7 +1043,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="601">
+  <cellStyles count="661">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1284,6 +1344,36 @@
     <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1584,6 +1674,36 @@
     <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1657,79 +1777,79 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gemm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nussinov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>atax</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>durbin</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>gemm</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>nussinov</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>doitgen</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>seidel-2d</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>syrk</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>trmm</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>lu</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>cholesky</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>atax</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>bicg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>doitgen</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2mm</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>adi</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>fdtd-2d</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>gemver</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mvt</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>trisolv</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>3mm</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>gramschmidt</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>ludcmp</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>symm</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>syr2k</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>covariance</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>fdtd-2d</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>gramschmidt</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mvt</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>deriche</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>correlation</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>gemver</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>gesummv</c:v>
@@ -1753,76 +1873,76 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>1.166666666666667</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>1.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>1.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.0</c:v>
@@ -1877,79 +1997,79 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gemm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nussinov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>atax</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>durbin</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>gemm</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>nussinov</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>doitgen</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>seidel-2d</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>syrk</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>trmm</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>lu</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>cholesky</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>atax</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>bicg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>doitgen</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2mm</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>adi</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>fdtd-2d</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>gemver</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mvt</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>trisolv</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>3mm</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>gramschmidt</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>ludcmp</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>symm</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>syr2k</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>covariance</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>fdtd-2d</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>gramschmidt</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mvt</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>deriche</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>correlation</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>gemver</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>gesummv</c:v>
@@ -1973,67 +2093,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.5</c:v>
@@ -2097,76 +2217,76 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>1.333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>1.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.0</c:v>
@@ -2196,11 +2316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2100910392"/>
-        <c:axId val="2093419800"/>
+        <c:axId val="2077042472"/>
+        <c:axId val="2076985608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100910392"/>
+        <c:axId val="2077042472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,7 +2340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093419800"/>
+        <c:crossAx val="2076985608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2228,7 +2348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093419800"/>
+        <c:axId val="2076985608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -2281,7 +2401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100910392"/>
+        <c:crossAx val="2077042472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2938,11 +3058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2058116600"/>
-        <c:axId val="2058119672"/>
+        <c:axId val="2077152344"/>
+        <c:axId val="2077155352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2058116600"/>
+        <c:axId val="2077152344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,7 +3082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058119672"/>
+        <c:crossAx val="2077155352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2970,7 +3090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058119672"/>
+        <c:axId val="2077155352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,7 +3142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058116600"/>
+        <c:crossAx val="2077152344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3145,10 +3265,10 @@
                   <c:v>nussinov</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>gemm</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>cholesky</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemm</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>lu</c:v>
@@ -3157,10 +3277,10 @@
                   <c:v>atax</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>syrk</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2mm</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>doitgen</c:v>
@@ -3169,10 +3289,10 @@
                   <c:v>3mm</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>ludcmp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>bicg</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>syr2k</c:v>
@@ -3238,40 +3358,40 @@
                   <c:v>1.018867924528302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.065217391304348</c:v>
+                  <c:v>1.021739130434783</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.536842105263158</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.564516129032258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.657142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.815384615384615</c:v>
+                  <c:v>1.753846153846154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.833333333333333</c:v>
+                  <c:v>1.780701754385965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.850877192982456</c:v>
+                  <c:v>1.803030303030303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.876712328767123</c:v>
+                  <c:v>1.849315068493151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.016129032258064</c:v>
+                  <c:v>1.935483870967742</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2.176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.211382113821138</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.254901960784313</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.406779661016949</c:v>
+                  <c:v>2.338983050847457</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.5</c:v>
@@ -3280,34 +3400,34 @@
                   <c:v>2.519230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>2.955555555555556</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.321428571428571</c:v>
+                  <c:v>4.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.354838709677419</c:v>
+                  <c:v>4.29032258064516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.93103448275862</c:v>
+                  <c:v>4.96551724137931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.478260869565218</c:v>
+                  <c:v>5.391304347826087</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.545454545454546</c:v>
+                  <c:v>6.090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.130434782608695</c:v>
+                  <c:v>7.869565217391305</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.25</c:v>
+                  <c:v>8.166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9.181818181818182</c:v>
@@ -3319,7 +3439,7 @@
                   <c:v>13.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.45454545454545</c:v>
+                  <c:v>16.54545454545455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,10 +3485,10 @@
                   <c:v>nussinov</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>gemm</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>cholesky</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemm</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>lu</c:v>
@@ -3377,10 +3497,10 @@
                   <c:v>atax</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>syrk</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2mm</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>doitgen</c:v>
@@ -3389,10 +3509,10 @@
                   <c:v>3mm</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>ludcmp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>bicg</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>syr2k</c:v>
@@ -3461,10 +3581,10 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.377906976744186</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.43046357615894</c:v>
@@ -3473,10 +3593,10 @@
                   <c:v>1.904761904761905</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.846846846846847</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.695652173913043</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.846846846846847</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.957746478873239</c:v>
@@ -3485,10 +3605,10 @@
                   <c:v>2.093220338983051</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2.288461538461538</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.010869565217391</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.288461538461538</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.482758620689655</c:v>
@@ -3582,40 +3702,40 @@
                   <c:v>1.018867924528302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.065217391304348</c:v>
+                  <c:v>1.021739130434783</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.536842105263158</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.556451612903226</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.647619047619047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8</c:v>
+                  <c:v>1.753846153846154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.833333333333333</c:v>
+                  <c:v>1.780701754385965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.842105263157895</c:v>
+                  <c:v>1.803030303030303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.876712328767123</c:v>
+                  <c:v>1.849315068493151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>1.935483870967742</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2.176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.195121951219512</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.215686274509804</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.389830508474576</c:v>
+                  <c:v>2.338983050847457</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.5</c:v>
@@ -3624,22 +3744,22 @@
                   <c:v>2.519230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>2.955555555555556</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.25</c:v>
+                  <c:v>4.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.354838709677419</c:v>
+                  <c:v>4.29032258064516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.862068965517241</c:v>
+                  <c:v>4.896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.434782608695652</c:v>
+                  <c:v>5.391304347826087</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6.090909090909091</c:v>
@@ -3648,10 +3768,10 @@
                   <c:v>7.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.0</c:v>
+                  <c:v>7.869565217391305</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.208333333333334</c:v>
+                  <c:v>8.166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9.181818181818182</c:v>
@@ -3663,7 +3783,7 @@
                   <c:v>13.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.45454545454545</c:v>
+                  <c:v>16.54545454545455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3678,11 +3798,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2062247000"/>
-        <c:axId val="2062250072"/>
+        <c:axId val="2077208664"/>
+        <c:axId val="2077211672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2062247000"/>
+        <c:axId val="2077208664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062250072"/>
+        <c:crossAx val="2077211672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3710,7 +3830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062250072"/>
+        <c:axId val="2077211672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -3744,7 +3864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -3763,7 +3882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062247000"/>
+        <c:crossAx val="2077208664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3883,31 +4002,31 @@
                   <c:v>durbin</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>atax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>cholesky</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>gemm</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>lu</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>seidel-2d</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>syrk</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>atax</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>bicg</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>ludcmp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>syr2k</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>gramschmidt</c:v>
@@ -3994,13 +4113,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.0</c:v>
@@ -4103,31 +4222,31 @@
                   <c:v>durbin</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>atax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bicg</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>cholesky</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>gemm</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>lu</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>seidel-2d</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>syrk</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>atax</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>bicg</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>ludcmp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>syr2k</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>gramschmidt</c:v>
@@ -4338,13 +4457,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.0</c:v>
@@ -4419,11 +4538,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098407304"/>
-        <c:axId val="2098404280"/>
+        <c:axId val="2074288120"/>
+        <c:axId val="2074285096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098407304"/>
+        <c:axId val="2074288120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4443,7 +4562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098404280"/>
+        <c:crossAx val="2074285096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4451,7 +4570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098404280"/>
+        <c:axId val="2074285096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,7 +4622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098407304"/>
+        <c:crossAx val="2074288120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5159,11 +5278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098353032"/>
-        <c:axId val="2098349928"/>
+        <c:axId val="2074231384"/>
+        <c:axId val="2074228360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098353032"/>
+        <c:axId val="2074231384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098349928"/>
+        <c:crossAx val="2074228360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5191,7 +5310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098349928"/>
+        <c:axId val="2074228360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5224,7 +5343,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -5243,7 +5361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098353032"/>
+        <c:crossAx val="2074231384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5468,19 +5586,19 @@
                   <c:v>1.777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.090909090909091</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.636363636363636</c:v>
+                  <c:v>4.454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.071428571428571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.545454545454546</c:v>
+                  <c:v>5.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.666666666666667</c:v>
@@ -5812,19 +5930,19 @@
                   <c:v>1.763888888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.045454545454545</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.545454545454546</c:v>
+                  <c:v>4.454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.071428571428571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.454545454545454</c:v>
+                  <c:v>5.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.666666666666667</c:v>
@@ -5899,11 +6017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098297928"/>
-        <c:axId val="2098294824"/>
+        <c:axId val="2076382184"/>
+        <c:axId val="2076379080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098297928"/>
+        <c:axId val="2076382184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5923,7 +6041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098294824"/>
+        <c:crossAx val="2076379080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5931,7 +6049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098294824"/>
+        <c:axId val="2076379080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -5965,7 +6083,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -5984,7 +6101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098297928"/>
+        <c:crossAx val="2076382184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6584,8 +6701,8 @@
   </sheetPr>
   <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6699,63 +6816,63 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C6" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="21">
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <f>D6/C6</f>
-        <v>0.75</v>
+        <f t="shared" ref="E6:E34" si="0">D6/C6</f>
+        <v>0.6</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H6" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="21">
         <v>3</v>
       </c>
       <c r="J6" s="3">
-        <f>I6/H6</f>
-        <v>0.75</v>
+        <f t="shared" ref="J6:J34" si="1">I6/H6</f>
+        <v>0.6</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M6" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="21">
         <v>3</v>
       </c>
       <c r="O6" s="6">
-        <f>N6/M6</f>
-        <v>0.75</v>
+        <f t="shared" ref="O6:O34" si="2">N6/M6</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C7" s="22">
         <v>5</v>
       </c>
       <c r="D7" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <f>D7/C7</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H7" s="22">
         <v>5</v>
@@ -6764,124 +6881,124 @@
         <v>3</v>
       </c>
       <c r="J7" s="3">
-        <f>I7/H7</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M7" s="22">
         <v>5</v>
       </c>
       <c r="N7" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="6">
-        <f>N7/M7</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C8" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="23">
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <f>D8/C8</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H8" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="23">
         <v>3</v>
       </c>
       <c r="J8" s="3">
-        <f>I8/H8</f>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M8" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" s="23">
         <v>3</v>
       </c>
       <c r="O8" s="6">
-        <f>N8/M8</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="22">
         <v>3</v>
       </c>
       <c r="D9" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
-        <f>D9/C9</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="23">
         <v>3</v>
       </c>
       <c r="J9" s="3">
-        <f>I9/H9</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="22">
         <v>3</v>
       </c>
       <c r="N9" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="6">
-        <f>N9/M9</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C10" s="22">
         <v>4</v>
       </c>
       <c r="D10" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <f>D10/C10</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H10" s="22">
         <v>4</v>
@@ -6890,250 +7007,250 @@
         <v>3</v>
       </c>
       <c r="J10" s="3">
-        <f>I10/H10</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M10" s="22">
         <v>4</v>
       </c>
       <c r="N10" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" s="6">
-        <f>N10/M10</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="22">
         <v>4</v>
       </c>
-      <c r="C11" s="22">
-        <v>3</v>
-      </c>
       <c r="D11" s="23">
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <f>D11/C11</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="22">
         <v>4</v>
       </c>
-      <c r="H11" s="22">
-        <v>3</v>
-      </c>
       <c r="I11" s="23">
         <v>3</v>
       </c>
       <c r="J11" s="3">
-        <f>I11/H11</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="22">
         <v>4</v>
       </c>
-      <c r="M11" s="22">
-        <v>3</v>
-      </c>
       <c r="N11" s="23">
         <v>3</v>
       </c>
       <c r="O11" s="6">
-        <f>N11/M11</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C12" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <f>D12/C12</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H12" s="22">
         <v>4</v>
       </c>
       <c r="I12" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <f>I12/H12</f>
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M12" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N12" s="23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O12" s="6">
-        <f>N12/M12</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <f>D13/C13</f>
-        <v>1.2</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H13" s="22">
         <v>4</v>
       </c>
       <c r="I13" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <f>I13/H13</f>
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M13" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O13" s="6">
-        <f>N13/M13</f>
-        <v>1.4</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C14" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <f>D14/C14</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H14" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="23">
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <f>I14/H14</f>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="M14" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" s="6">
-        <f>N14/M14</f>
-        <v>1.25</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C15" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <f>D15/C15</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H15" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="23">
         <v>3</v>
       </c>
       <c r="J15" s="3">
-        <f>I15/H15</f>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M15" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15" s="6">
-        <f>N15/M15</f>
-        <v>1.25</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="22">
         <v>3</v>
       </c>
       <c r="D16" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <f>D16/C16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H16" s="22">
         <v>3</v>
@@ -7142,250 +7259,250 @@
         <v>3</v>
       </c>
       <c r="J16" s="3">
-        <f>I16/H16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M16" s="22">
         <v>3</v>
       </c>
       <c r="N16" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" s="6">
-        <f>N16/M16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C17" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <f>D17/C17</f>
-        <v>1.4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H17" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="23">
         <v>3</v>
       </c>
       <c r="J17" s="3">
-        <f>I17/H17</f>
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="M17" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O17" s="6">
-        <f>N17/M17</f>
-        <v>1.4</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C18" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3">
-        <f>D18/C18</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H18" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
-        <f>I18/H18</f>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M18" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N18" s="23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O18" s="6">
-        <f>N18/M18</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <f>D19/C19</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
-        <f>I19/H19</f>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M19" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O19" s="6">
-        <f>N19/M19</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C20" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <f>D20/C20</f>
-        <v>1.6</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H20" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" s="23">
         <v>3</v>
       </c>
       <c r="J20" s="3">
-        <f>I20/H20</f>
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M20" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20" s="23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O20" s="6">
-        <f>N20/M20</f>
-        <v>1.6</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C21" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" s="23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <f>D21/C21</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H21" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
-        <f>I21/H21</f>
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M21" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N21" s="23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O21" s="6">
-        <f>N21/M21</f>
-        <v>1.8333333333333333</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <f>D22/C22</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H22" s="22">
         <v>2</v>
@@ -7394,82 +7511,82 @@
         <v>3</v>
       </c>
       <c r="J22" s="3">
-        <f>I22/H22</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M22" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" s="6">
-        <f>N22/M22</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C23" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <f>D23/C23</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H23" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="23">
         <v>3</v>
       </c>
       <c r="J23" s="3">
-        <f>I23/H23</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M23" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O23" s="6">
-        <f>N23/M23</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C24" s="22">
         <v>2</v>
       </c>
       <c r="D24" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <f>D24/C24</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H24" s="22">
         <v>2</v>
@@ -7478,124 +7595,124 @@
         <v>3</v>
       </c>
       <c r="J24" s="3">
-        <f>I24/H24</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M24" s="22">
         <v>2</v>
       </c>
       <c r="N24" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O24" s="6">
-        <f>N24/M24</f>
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C25" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <f>D25/C25</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H25" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="23">
         <v>3</v>
       </c>
       <c r="J25" s="3">
-        <f>I25/H25</f>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M25" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O25" s="6">
-        <f>N25/M25</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <f>D26/C26</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H26" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" s="3">
-        <f>I26/H26</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M26" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N26" s="23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O26" s="6">
-        <f>N26/M26</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <f>D27/C27</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="22">
         <v>2</v>
@@ -7604,40 +7721,40 @@
         <v>3</v>
       </c>
       <c r="J27" s="3">
-        <f>I27/H27</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" s="6">
-        <f>N27/M27</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" s="22">
         <v>2</v>
       </c>
       <c r="D28" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
-        <f>D28/C28</f>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H28" s="22">
         <v>2</v>
@@ -7646,40 +7763,40 @@
         <v>3</v>
       </c>
       <c r="J28" s="3">
-        <f>I28/H28</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M28" s="22">
         <v>2</v>
       </c>
       <c r="N28" s="23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O28" s="6">
-        <f>N28/M28</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C29" s="22">
         <v>2</v>
       </c>
       <c r="D29" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <f>D29/C29</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H29" s="22">
         <v>2</v>
@@ -7688,26 +7805,26 @@
         <v>3</v>
       </c>
       <c r="J29" s="3">
-        <f>I29/H29</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M29" s="22">
         <v>2</v>
       </c>
       <c r="N29" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O29" s="6">
-        <f>N29/M29</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C30" s="22">
         <v>2</v>
@@ -7716,12 +7833,12 @@
         <v>6</v>
       </c>
       <c r="E30" s="3">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H30" s="22">
         <v>2</v>
@@ -7730,11 +7847,11 @@
         <v>3</v>
       </c>
       <c r="J30" s="3">
-        <f>I30/H30</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M30" s="22">
         <v>2</v>
@@ -7743,7 +7860,7 @@
         <v>6</v>
       </c>
       <c r="O30" s="6">
-        <f>N30/M30</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7758,7 +7875,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <f>D31/C31</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F31" s="6"/>
@@ -7772,7 +7889,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="3">
-        <f>I31/H31</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L31" t="s">
@@ -7785,7 +7902,7 @@
         <v>3</v>
       </c>
       <c r="O31" s="6">
-        <f>N31/M31</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7800,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <f>D32/C32</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F32" s="6"/>
@@ -7814,7 +7931,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="3">
-        <f>I32/H32</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -7827,7 +7944,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="6">
-        <f>N32/M32</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7842,7 +7959,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <f>D33/C33</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F33" s="6"/>
@@ -7856,7 +7973,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="3">
-        <f>I33/H33</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L33" t="s">
@@ -7869,7 +7986,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="6">
-        <f>N33/M33</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7884,7 +8001,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="3">
-        <f>D34/C34</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F34" s="6"/>
@@ -7898,7 +8015,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="3">
-        <f>I34/H34</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L34" t="s">
@@ -7911,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="O34" s="6">
-        <f>N34/M34</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -7951,6 +8068,9 @@
       <c r="O67" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B6:O34">
+    <sortCondition ref="E6:E34"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
@@ -7959,7 +8079,6 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7976,8 +8095,8 @@
   </sheetPr>
   <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9371,7 +9490,7 @@
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9533,11 +9652,11 @@
         <v>46</v>
       </c>
       <c r="D7" s="19">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>1.0652173913043479</v>
+        <v>1.0217391304347827</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
@@ -9560,95 +9679,95 @@
         <v>46</v>
       </c>
       <c r="N7" s="19">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>1.0652173913043479</v>
+        <v>1.0217391304347827</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D8" s="19">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>1.564516129032258</v>
+        <v>1.5368421052631578</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H8" s="18">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="I8" s="19">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>1.3779069767441861</v>
+        <v>1.5</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M8" s="18">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="N8" s="19">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="2"/>
-        <v>1.5564516129032258</v>
+        <v>1.5368421052631578</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C9" s="18">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D9" s="19">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>1.5789473684210527</v>
+        <v>1.564516129032258</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H9" s="18">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="I9" s="19">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.3779069767441861</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M9" s="18">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="N9" s="19">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="2"/>
-        <v>1.5789473684210527</v>
+        <v>1.5564516129032258</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -9701,11 +9820,11 @@
         <v>65</v>
       </c>
       <c r="D11" s="19">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>1.8153846153846154</v>
+        <v>1.7538461538461538</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" t="s">
@@ -9728,95 +9847,95 @@
         <v>65</v>
       </c>
       <c r="N11" s="19">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>1.7538461538461538</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C12" s="18">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="D12" s="19">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
+        <v>1.7807017543859649</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H12" s="18">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="I12" s="19">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>1.6956521739130435</v>
+        <v>1.8468468468468469</v>
       </c>
       <c r="L12" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M12" s="18">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="N12" s="19">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="2"/>
-        <v>1.8333333333333333</v>
+        <v>1.7807017543859649</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C13" s="18">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="D13" s="19">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>1.8508771929824561</v>
+        <v>1.803030303030303</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H13" s="18">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="I13" s="19">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>1.8468468468468469</v>
+        <v>1.6956521739130435</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M13" s="18">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N13" s="19">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="2"/>
-        <v>1.8421052631578947</v>
+        <v>1.803030303030303</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -9827,11 +9946,11 @@
         <v>73</v>
       </c>
       <c r="D14" s="19">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>1.8767123287671232</v>
+        <v>1.8493150684931507</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" t="s">
@@ -9854,11 +9973,11 @@
         <v>73</v>
       </c>
       <c r="N14" s="19">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="2"/>
-        <v>1.8767123287671232</v>
+        <v>1.8493150684931507</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -9869,11 +9988,11 @@
         <v>124</v>
       </c>
       <c r="D15" s="19">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>2.0161290322580645</v>
+        <v>1.935483870967742</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" t="s">
@@ -9896,95 +10015,95 @@
         <v>124</v>
       </c>
       <c r="N15" s="19">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.935483870967742</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C16" s="18">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="D16" s="19">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>2.2113821138211383</v>
+        <v>2.1764705882352939</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H16" s="18">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="I16" s="19">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>2.0108695652173911</v>
+        <v>2.2884615384615383</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M16" s="18">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="N16" s="19">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="2"/>
-        <v>2.1951219512195124</v>
+        <v>2.1764705882352939</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C17" s="18">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D17" s="19">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>2.2549019607843137</v>
+        <v>2.2113821138211383</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H17" s="18">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="I17" s="19">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>2.2884615384615383</v>
+        <v>2.0108695652173911</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M17" s="18">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="N17" s="19">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="2"/>
-        <v>2.215686274509804</v>
+        <v>2.1951219512195124</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -9995,11 +10114,11 @@
         <v>59</v>
       </c>
       <c r="D18" s="19">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>2.406779661016949</v>
+        <v>2.3389830508474576</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" t="s">
@@ -10022,11 +10141,11 @@
         <v>59</v>
       </c>
       <c r="N18" s="19">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="2"/>
-        <v>2.3898305084745761</v>
+        <v>2.3389830508474576</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -10121,11 +10240,11 @@
         <v>45</v>
       </c>
       <c r="D21" s="19">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.9555555555555557</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" t="s">
@@ -10148,11 +10267,11 @@
         <v>45</v>
       </c>
       <c r="N21" s="19">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.9555555555555557</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -10205,11 +10324,11 @@
         <v>28</v>
       </c>
       <c r="D23" s="19">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>4.3214285714285712</v>
+        <v>4.2142857142857144</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" t="s">
@@ -10232,11 +10351,11 @@
         <v>28</v>
       </c>
       <c r="N23" s="19">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="2"/>
-        <v>4.25</v>
+        <v>4.2142857142857144</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -10247,11 +10366,11 @@
         <v>31</v>
       </c>
       <c r="D24" s="19">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>4.354838709677419</v>
+        <v>4.290322580645161</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" t="s">
@@ -10274,11 +10393,11 @@
         <v>31</v>
       </c>
       <c r="N24" s="19">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="2"/>
-        <v>4.354838709677419</v>
+        <v>4.290322580645161</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -10289,11 +10408,11 @@
         <v>29</v>
       </c>
       <c r="D25" s="19">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>4.931034482758621</v>
+        <v>4.9655172413793105</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" t="s">
@@ -10316,11 +10435,11 @@
         <v>29</v>
       </c>
       <c r="N25" s="19">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="2"/>
-        <v>4.8620689655172411</v>
+        <v>4.8965517241379306</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -10331,11 +10450,11 @@
         <v>23</v>
       </c>
       <c r="D26" s="19">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>5.4782608695652177</v>
+        <v>5.3913043478260869</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" t="s">
@@ -10358,11 +10477,11 @@
         <v>23</v>
       </c>
       <c r="N26" s="19">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="2"/>
-        <v>5.4347826086956523</v>
+        <v>5.3913043478260869</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -10373,11 +10492,11 @@
         <v>11</v>
       </c>
       <c r="D27" s="19">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>6.5454545454545459</v>
+        <v>6.0909090909090908</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" t="s">
@@ -10457,11 +10576,11 @@
         <v>23</v>
       </c>
       <c r="D29" s="19">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="0"/>
-        <v>8.1304347826086953</v>
+        <v>7.8695652173913047</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" t="s">
@@ -10484,11 +10603,11 @@
         <v>23</v>
       </c>
       <c r="N29" s="19">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7.8695652173913047</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -10499,11 +10618,11 @@
         <v>24</v>
       </c>
       <c r="D30" s="19">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="0"/>
-        <v>8.25</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" t="s">
@@ -10526,11 +10645,11 @@
         <v>24</v>
       </c>
       <c r="N30" s="19">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="2"/>
-        <v>8.2083333333333339</v>
+        <v>8.1666666666666661</v>
       </c>
     </row>
     <row r="31" spans="2:15">
@@ -10667,11 +10786,11 @@
         <v>11</v>
       </c>
       <c r="D34" s="19">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="0"/>
-        <v>16.454545454545453</v>
+        <v>16.545454545454547</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" t="s">
@@ -10694,11 +10813,11 @@
         <v>11</v>
       </c>
       <c r="N34" s="19">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O34" s="6">
         <f t="shared" si="2"/>
-        <v>16.454545454545453</v>
+        <v>16.545454545454547</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -10762,10 +10881,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O67"/>
+  <dimension ref="B1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10784,7 +10903,7 @@
     <col min="16" max="16" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" customHeight="1">
+    <row r="1" spans="2:19" ht="15" customHeight="1">
       <c r="B1" s="26" t="s">
         <v>39</v>
       </c>
@@ -10802,7 +10921,7 @@
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="2:15" ht="15" customHeight="1">
+    <row r="2" spans="2:19" ht="15" customHeight="1">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -10818,7 +10937,7 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="4" spans="2:15" ht="16" thickBot="1">
+    <row r="4" spans="2:19" ht="16" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>33</v>
       </c>
@@ -10838,7 +10957,7 @@
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:19" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -10877,14 +10996,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:19">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
       <c r="E6" s="3">
@@ -10911,7 +11030,7 @@
       <c r="M6" s="16">
         <v>2</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="19">
         <v>1</v>
       </c>
       <c r="O6" s="6">
@@ -10919,9 +11038,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
@@ -10935,7 +11054,7 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H7" s="18">
         <v>1</v>
@@ -10948,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M7" s="18">
         <v>1</v>
@@ -10961,9 +11080,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="18">
         <v>1</v>
@@ -10977,7 +11096,7 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="18">
         <v>1</v>
@@ -10990,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="18">
         <v>1</v>
@@ -11003,15 +11122,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
@@ -11019,7 +11138,7 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" s="18">
         <v>1</v>
@@ -11032,22 +11151,22 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M9" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:19">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18">
         <v>1</v>
@@ -11061,7 +11180,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H10" s="18">
         <v>1</v>
@@ -11074,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M10" s="18">
         <v>1</v>
@@ -11087,15 +11206,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
@@ -11103,7 +11222,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H11" s="18">
         <v>1</v>
@@ -11116,36 +11235,36 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:19">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C12" s="18">
         <v>1</v>
       </c>
       <c r="D12" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H12" s="18">
         <v>1</v>
@@ -11158,36 +11277,36 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M12" s="18">
         <v>1</v>
       </c>
       <c r="N12" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C13" s="18">
         <v>1</v>
       </c>
       <c r="D13" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="H13" s="18">
         <v>1</v>
@@ -11200,70 +11319,71 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="M13" s="18">
         <v>1</v>
       </c>
       <c r="N13" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>1</v>
+      </c>
+      <c r="S13" s="19"/>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C14" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1</v>
+      </c>
+      <c r="N14" s="19">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="18">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
-      <c r="N14" s="19">
+      <c r="D15" s="19">
         <v>4</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>2</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
@@ -11271,7 +11391,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H15" s="18">
         <v>1</v>
@@ -11284,20 +11404,20 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M15" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="19">
+        <v>4</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O15" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -11347,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="e">
         <f t="shared" si="0"/>
@@ -11374,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="6" t="e">
         <f t="shared" si="2"/>
@@ -11389,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="e">
         <f t="shared" si="0"/>
@@ -11416,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6" t="e">
         <f t="shared" si="2"/>
@@ -11542,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="6" t="e">
         <f t="shared" si="2"/>
@@ -11683,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="e">
         <f t="shared" si="0"/>
@@ -11710,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" s="6" t="e">
         <f t="shared" si="2"/>
@@ -11893,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="e">
         <f t="shared" si="0"/>
@@ -11920,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12159,7 +12279,7 @@
   <dimension ref="B1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12178,7 +12298,7 @@
     <col min="16" max="16" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" customHeight="1">
+    <row r="1" spans="2:17" ht="15" customHeight="1">
       <c r="B1" s="26" t="s">
         <v>40</v>
       </c>
@@ -12196,7 +12316,7 @@
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="2:15" ht="15" customHeight="1">
+    <row r="2" spans="2:17" ht="15" customHeight="1">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -12212,7 +12332,7 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="4" spans="2:15" ht="16" thickBot="1">
+    <row r="4" spans="2:17" ht="16" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>33</v>
       </c>
@@ -12232,7 +12352,7 @@
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="16" thickBot="1">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -12271,14 +12391,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:17">
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>4</v>
       </c>
       <c r="E6" s="3">
@@ -12305,7 +12425,7 @@
       <c r="M6" s="16">
         <v>4</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="19">
         <v>4</v>
       </c>
       <c r="O6" s="6">
@@ -12313,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:17">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -12355,7 +12475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:17">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -12397,7 +12517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:17">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -12439,7 +12559,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:17">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -12481,7 +12601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:17">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -12523,7 +12643,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:17">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -12565,7 +12685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:17">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -12607,7 +12727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:17">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -12649,7 +12769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:17">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -12690,8 +12810,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -13551,10 +13672,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R67"/>
+  <dimension ref="B1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13673,7 +13794,7 @@
       <c r="C6" s="16">
         <v>54</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>54</v>
       </c>
       <c r="E6" s="3">
@@ -13700,7 +13821,7 @@
       <c r="M6" s="16">
         <v>54</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="19">
         <v>54</v>
       </c>
       <c r="O6" s="6">
@@ -13842,11 +13963,11 @@
         <v>22</v>
       </c>
       <c r="D10" s="19">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>3.0909090909090908</v>
+        <v>3</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" t="s">
@@ -13869,11 +13990,11 @@
         <v>22</v>
       </c>
       <c r="N10" s="19">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="2"/>
-        <v>3.0454545454545454</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -13926,11 +14047,11 @@
         <v>11</v>
       </c>
       <c r="D12" s="19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>4.6363636363636367</v>
+        <v>4.4545454545454541</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" t="s">
@@ -13953,11 +14074,11 @@
         <v>11</v>
       </c>
       <c r="N12" s="19">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
+        <v>4.4545454545454541</v>
       </c>
       <c r="R12" s="2"/>
     </row>
@@ -14011,11 +14132,11 @@
         <v>11</v>
       </c>
       <c r="D14" s="19">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>5.5454545454545459</v>
+        <v>5.3636363636363633</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" t="s">
@@ -14038,11 +14159,11 @@
         <v>11</v>
       </c>
       <c r="N14" s="19">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="2"/>
-        <v>5.4545454545454541</v>
+        <v>5.3636363636363633</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -14129,7 +14250,7 @@
         <v>5.8888888888888893</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:19">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -14137,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="19">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="3" t="e">
         <f t="shared" si="0"/>
@@ -14164,14 +14285,14 @@
         <v>0</v>
       </c>
       <c r="N17" s="19">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O17" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:19">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -14179,7 +14300,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="19">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E18" s="3" t="e">
         <f t="shared" si="0"/>
@@ -14206,14 +14327,14 @@
         <v>0</v>
       </c>
       <c r="N18" s="19">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O18" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:19">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -14255,7 +14376,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:19">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -14297,7 +14418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:19">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -14305,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="19">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" s="3" t="e">
         <f t="shared" si="0"/>
@@ -14332,14 +14453,14 @@
         <v>0</v>
       </c>
       <c r="N21" s="19">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:19">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -14381,7 +14502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:19">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -14422,8 +14543,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -14465,7 +14587,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:19">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -14473,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="19">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="e">
         <f t="shared" si="0"/>
@@ -14500,14 +14622,14 @@
         <v>0</v>
       </c>
       <c r="N25" s="19">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O25" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:19">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -14549,7 +14671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:19">
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -14557,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="19">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="3" t="e">
         <f t="shared" si="0"/>
@@ -14584,14 +14706,14 @@
         <v>0</v>
       </c>
       <c r="N27" s="19">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O27" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:19">
       <c r="B28" t="s">
         <v>11</v>
       </c>
@@ -14599,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="19">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3" t="e">
         <f t="shared" si="0"/>
@@ -14633,7 +14755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:19">
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -14675,7 +14797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:19">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -14683,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="19">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" s="3" t="e">
         <f t="shared" si="0"/>
@@ -14710,14 +14832,14 @@
         <v>0</v>
       </c>
       <c r="N30" s="19">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O30" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:19">
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -14759,7 +14881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:19">
       <c r="B32" t="s">
         <v>25</v>
       </c>
